--- a/biology/Botanique/Samanea_dinklagei/Samanea_dinklagei.xlsx
+++ b/biology/Botanique/Samanea_dinklagei/Samanea_dinklagei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Samanea dinklagei est une espèce de plantes de la famille des Fabaceae et du genre Samanea, présente en Afrique de l'Ouest. C'est une plante médicinale[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Samanea dinklagei est une espèce de plantes de la famille des Fabaceae et du genre Samanea, présente en Afrique de l'Ouest. C'est une plante médicinale.
 Son épithète spécifique dinklagei rend hommage au botaniste allemand Max Julius Dinklage, spécialiste de la flore africaine.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dissémination de ses graines est facilitée par les éléphants, celles-ci étant capables de germer dans les excréments d'éléphant.
 </t>
         </is>
       </c>
